--- a/data/trans_dic/P19C04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.07739496433671458</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04662058717408771</v>
+        <v>0.0466205871740877</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1047107505384465</v>
@@ -697,7 +697,7 @@
         <v>0.08426720192000292</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06656014873419333</v>
+        <v>0.06656014873419334</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09905025940430841</v>
+        <v>0.09689937837057694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1018487767053574</v>
+        <v>0.1033845855876956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06344557287099292</v>
+        <v>0.06466366393192632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06326314966687165</v>
+        <v>0.064137278978264</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04467527439025551</v>
+        <v>0.04485455151117836</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0721258567979514</v>
+        <v>0.07255876224941928</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05022431454755905</v>
+        <v>0.04981220877346606</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03155305656088753</v>
+        <v>0.03370082029081849</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0815420611840712</v>
+        <v>0.08232498573891131</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09735288042531216</v>
+        <v>0.09843801325925591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06471735808834135</v>
+        <v>0.06615623558832928</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05294008392576545</v>
+        <v>0.05312589392892328</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1669072350664824</v>
+        <v>0.1672028239248079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1710391876592672</v>
+        <v>0.1744163044639149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1240377287752051</v>
+        <v>0.1236582696697367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1074122928215795</v>
+        <v>0.112419232347776</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1090850948091401</v>
+        <v>0.1079601433603388</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1484493673874193</v>
+        <v>0.1533139234002722</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1092847212380087</v>
+        <v>0.1126757675581678</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06370572705654719</v>
+        <v>0.06581891424019358</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1305725760234424</v>
+        <v>0.1306948758436401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1520687416387585</v>
+        <v>0.1555281692630991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.106277286691226</v>
+        <v>0.1092397402573662</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08188235822401141</v>
+        <v>0.08197135075314599</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06078225515923712</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05855258971545908</v>
+        <v>0.05855258971545909</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1132486430439863</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1135394235551354</v>
+        <v>0.1140690670307732</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1132014819317944</v>
+        <v>0.1110894725160221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08869935331581447</v>
+        <v>0.09046878961419171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07808371933637456</v>
+        <v>0.07635282345999826</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.048480438732818</v>
+        <v>0.04928334901328499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0733111945353724</v>
+        <v>0.074304930732307</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03698448761659928</v>
+        <v>0.03794863095030914</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04064126851865672</v>
+        <v>0.04117928502142247</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08810126631997418</v>
+        <v>0.08831656994192158</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1043560279854745</v>
+        <v>0.1030572106134712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07240203268287226</v>
+        <v>0.07222762208464176</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06523946767413676</v>
+        <v>0.06560676452589101</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2019960165121351</v>
+        <v>0.2016252961105231</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1922992455368924</v>
+        <v>0.1852642439396019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1708503264678548</v>
+        <v>0.1681181194311377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1336482464961438</v>
+        <v>0.1317029499968455</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1122551576603963</v>
+        <v>0.110761486248973</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.147955972475741</v>
+        <v>0.1482012177966844</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09455802334243402</v>
+        <v>0.0951775277050565</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08238668326068312</v>
+        <v>0.07987847896711699</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1426858518613817</v>
+        <v>0.1420762822262733</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.158167863655038</v>
+        <v>0.1572846336942783</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1202358147363776</v>
+        <v>0.119856621890176</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09883996823130185</v>
+        <v>0.1006951597628145</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1772178586663106</v>
+        <v>0.1777902229685621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2251634096214346</v>
+        <v>0.2221472058781298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1480888748212912</v>
+        <v>0.148791641318426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1262967703633033</v>
+        <v>0.1282890225053812</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08396062256233551</v>
+        <v>0.08593866588415335</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07376778203272107</v>
+        <v>0.07402052256070653</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09820864972208947</v>
+        <v>0.09598827182229777</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0724977307508054</v>
+        <v>0.07226505663051304</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1634463830964715</v>
+        <v>0.1649010866636324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.186456414208595</v>
+        <v>0.1834416427914723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1432427817762277</v>
+        <v>0.1445965887448442</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1186861998591341</v>
+        <v>0.1177074288084098</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2540994620705799</v>
+        <v>0.2573605459982042</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3022867264147152</v>
+        <v>0.3053544826600437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2217616315926272</v>
+        <v>0.2240617899334268</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1937920429107118</v>
+        <v>0.1988559949990536</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1974181111097273</v>
+        <v>0.2002175129763367</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1561499209714478</v>
+        <v>0.1593395552531938</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2297431713220119</v>
+        <v>0.2331456787448528</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1456688852109319</v>
+        <v>0.14786036882053</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2296414749260796</v>
+        <v>0.2282911851734517</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2465017269840972</v>
+        <v>0.245671362626469</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2096578193904939</v>
+        <v>0.2067139738141253</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1714291281740576</v>
+        <v>0.1720624075138234</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2227019636972358</v>
+        <v>0.227003221548852</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2922094580773847</v>
+        <v>0.2931163102366151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1858767274228651</v>
+        <v>0.184676083309215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1675776079217108</v>
+        <v>0.1665757591204066</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1291887416031196</v>
+        <v>0.1314638195879716</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1274350795749306</v>
+        <v>0.1283254088401617</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09934843443569392</v>
+        <v>0.1002212814715653</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09244369437115589</v>
+        <v>0.09284588268897552</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.193930104441834</v>
+        <v>0.1923606586231295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2306437198201531</v>
+        <v>0.2322801995364046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1568320415256385</v>
+        <v>0.1551618090016724</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1390563513314597</v>
+        <v>0.1400511829886839</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2818561209880264</v>
+        <v>0.2834609169462429</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3575867300355168</v>
+        <v>0.3549894981820587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2425940800189278</v>
+        <v>0.2399652170412481</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2148169467763089</v>
+        <v>0.2153174785952168</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1936724762924247</v>
+        <v>0.1926152809290361</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1842327204347653</v>
+        <v>0.1862609552352765</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1520590326494863</v>
+        <v>0.1504565731551427</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1274936886592389</v>
+        <v>0.1296553485324821</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2364128445844415</v>
+        <v>0.2359409934602637</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2778835724884819</v>
+        <v>0.2735195169091433</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1960840372154763</v>
+        <v>0.1960569645542858</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1712148074164683</v>
+        <v>0.1711166888748226</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2763286898903217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2900251284842478</v>
+        <v>0.2900251284842479</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1989453646111898</v>
@@ -1229,7 +1229,7 @@
         <v>0.1549788144193734</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1787027252882764</v>
+        <v>0.1787027252882765</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2147904556402311</v>
@@ -1241,7 +1241,7 @@
         <v>0.2074840122438389</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.222250043862097</v>
+        <v>0.2222500438620971</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1890482597788107</v>
+        <v>0.1929623486008447</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2860108202218761</v>
+        <v>0.284438277241502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2323174578474375</v>
+        <v>0.2316438457431207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2486589333253691</v>
+        <v>0.2512109110034062</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1617703684117941</v>
+        <v>0.1621319935035772</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.209010470097711</v>
+        <v>0.2076330679258035</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.129026368604932</v>
+        <v>0.1230298491435017</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1578015266245313</v>
+        <v>0.1567378632429473</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1844334464738382</v>
+        <v>0.1806552958094345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2500222917578651</v>
+        <v>0.245140844700177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1815241945825499</v>
+        <v>0.1830174051551481</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.201563826279993</v>
+        <v>0.2027392416336181</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2948752881773086</v>
+        <v>0.3026347538124655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3804792504748445</v>
+        <v>0.3840068126195337</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3197468644088534</v>
+        <v>0.3195318066470246</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3321501969054562</v>
+        <v>0.3319030527607433</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2360334085709857</v>
+        <v>0.242121023624084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2787605578813581</v>
+        <v>0.27577446632109</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1885685910681772</v>
+        <v>0.1851617836147418</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2025603640887667</v>
+        <v>0.2015681201871119</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.246348921904232</v>
+        <v>0.2421316625735938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3038187443723258</v>
+        <v>0.3039195523530383</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2355721762666365</v>
+        <v>0.2327444429178569</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.244251761120372</v>
+        <v>0.243736056702397</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05983432450767328</v>
+        <v>0.06190634257317969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05819944004087484</v>
+        <v>0.0599833795081668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05970345587684353</v>
+        <v>0.05974010146435402</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03046419759037727</v>
+        <v>0.0328981393160101</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1399780615523539</v>
+        <v>0.138456799087095</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1813362988429852</v>
+        <v>0.1802346875568545</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1364379255121945</v>
+        <v>0.1367652657614864</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1126576327283181</v>
+        <v>0.1107854117125404</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1294244289537768</v>
+        <v>0.1314888301257507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1640925146311479</v>
+        <v>0.1650278066603389</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1273515046431192</v>
+        <v>0.1266226167151076</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09976287515818356</v>
+        <v>0.1001651736124687</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1414332271351181</v>
+        <v>0.1489546948099074</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1345453189024448</v>
+        <v>0.140926194963169</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1372980469130226</v>
+        <v>0.1361341127460745</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1351345131098816</v>
+        <v>0.1439421212814115</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1862703225062811</v>
+        <v>0.1879663838955736</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2359003412853211</v>
+        <v>0.2352343812031674</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1940358601053419</v>
+        <v>0.1909684545519324</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1505672245487863</v>
+        <v>0.1516014798558242</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1717638042772474</v>
+        <v>0.171389698524132</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2107314509856921</v>
+        <v>0.210950292292488</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1763352236133877</v>
+        <v>0.173273968535152</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1384704101120024</v>
+        <v>0.1376967948608488</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1824318413210163</v>
+        <v>0.1842436998329416</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2310092258211941</v>
+        <v>0.230354553155861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1633595065561853</v>
+        <v>0.1649895412838031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1485708185149454</v>
+        <v>0.1500435080733994</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1348376677425044</v>
+        <v>0.1344954466769667</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1616396689748029</v>
+        <v>0.1609903769455624</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1172048002208595</v>
+        <v>0.1185623901920659</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1069209642496656</v>
+        <v>0.1057490572353672</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.161533291674306</v>
+        <v>0.1613607012916284</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.198815559417781</v>
+        <v>0.1996016963300328</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1442556693894522</v>
+        <v>0.1449496654422616</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1303968736602055</v>
+        <v>0.1301235278751647</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2164936801309811</v>
+        <v>0.2188516591608588</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2640028335477002</v>
+        <v>0.2635606351588376</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1961480074235051</v>
+        <v>0.1949572388444706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1754789724337114</v>
+        <v>0.176550260165746</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1610105590452296</v>
+        <v>0.1608981489304322</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1905824884735278</v>
+        <v>0.1906614159364633</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.144228765480731</v>
+        <v>0.1434434927158703</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1243541853736361</v>
+        <v>0.1235968520445283</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1824658263664618</v>
+        <v>0.1833345091860651</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2203640828601306</v>
+        <v>0.2218970990993572</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.16445588503704</v>
+        <v>0.16529997977626</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1457637952289239</v>
+        <v>0.1455890724476939</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38263</v>
+        <v>37432</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40265</v>
+        <v>40872</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24592</v>
+        <v>25065</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>34242</v>
+        <v>34715</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11986</v>
+        <v>12034</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21202</v>
+        <v>21329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15862</v>
+        <v>15731</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15187</v>
+        <v>16221</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53377</v>
+        <v>53889</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>67105</v>
+        <v>67853</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45524</v>
+        <v>46536</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54136</v>
+        <v>54326</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>64477</v>
+        <v>64591</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>67619</v>
+        <v>68954</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48079</v>
+        <v>47932</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58138</v>
+        <v>60848</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29266</v>
+        <v>28964</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43637</v>
+        <v>45067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34514</v>
+        <v>35585</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30663</v>
+        <v>31680</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>85472</v>
+        <v>85552</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>104821</v>
+        <v>107205</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>74759</v>
+        <v>76843</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>83732</v>
+        <v>83823</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34085</v>
+        <v>34244</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43438</v>
+        <v>42628</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28087</v>
+        <v>28648</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37428</v>
+        <v>36598</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16171</v>
+        <v>16439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22983</v>
+        <v>23295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12337</v>
+        <v>12659</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16985</v>
+        <v>17210</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>55836</v>
+        <v>55972</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72760</v>
+        <v>71854</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>47078</v>
+        <v>46965</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58536</v>
+        <v>58866</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60640</v>
+        <v>60529</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>73790</v>
+        <v>71090</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54101</v>
+        <v>53236</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64062</v>
+        <v>63129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37444</v>
+        <v>36946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46384</v>
+        <v>46461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31542</v>
+        <v>31749</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34431</v>
+        <v>33383</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90430</v>
+        <v>90044</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>110279</v>
+        <v>109663</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>78181</v>
+        <v>77935</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>88684</v>
+        <v>90349</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>76251</v>
+        <v>76497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>120572</v>
+        <v>118957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60007</v>
+        <v>60292</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>58585</v>
+        <v>59509</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11760</v>
+        <v>12037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17678</v>
+        <v>17738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13692</v>
+        <v>13383</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13400</v>
+        <v>13357</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>93219</v>
+        <v>94049</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>144527</v>
+        <v>142190</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>78015</v>
+        <v>78752</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>76992</v>
+        <v>76357</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>109331</v>
+        <v>110734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>161871</v>
+        <v>163514</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>89860</v>
+        <v>90792</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>89893</v>
+        <v>92242</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27652</v>
+        <v>28044</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37419</v>
+        <v>38184</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32031</v>
+        <v>32505</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26924</v>
+        <v>27329</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>130973</v>
+        <v>130202</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>191070</v>
+        <v>190426</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>114187</v>
+        <v>112583</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>111206</v>
+        <v>111617</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>194075</v>
+        <v>197823</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>284241</v>
+        <v>285123</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>163480</v>
+        <v>162424</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>183615</v>
+        <v>182517</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>77029</v>
+        <v>78385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>89068</v>
+        <v>89690</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>67849</v>
+        <v>68445</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>77356</v>
+        <v>77693</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>284632</v>
+        <v>282328</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>385557</v>
+        <v>388293</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>245041</v>
+        <v>242431</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>268725</v>
+        <v>270647</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>245625</v>
+        <v>247023</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>347835</v>
+        <v>345309</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>213363</v>
+        <v>211051</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>235375</v>
+        <v>235923</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>115477</v>
+        <v>114847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>128765</v>
+        <v>130183</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>103847</v>
+        <v>102752</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>106685</v>
+        <v>108494</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>346984</v>
+        <v>346291</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>464526</v>
+        <v>457231</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>306370</v>
+        <v>306327</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>330871</v>
+        <v>330681</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>46870</v>
+        <v>47841</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>115352</v>
+        <v>114717</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98774</v>
+        <v>98488</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>126778</v>
+        <v>128079</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73780</v>
+        <v>73945</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>139778</v>
+        <v>138856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>71930</v>
+        <v>68587</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>125216</v>
+        <v>124372</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>129842</v>
+        <v>127183</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>268042</v>
+        <v>262808</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>178375</v>
+        <v>179842</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>262709</v>
+        <v>264241</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>73108</v>
+        <v>75031</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>153452</v>
+        <v>154875</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135946</v>
+        <v>135855</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>169346</v>
+        <v>169220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107650</v>
+        <v>110427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>186424</v>
+        <v>184427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>105123</v>
+        <v>103224</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>160733</v>
+        <v>159945</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>173431</v>
+        <v>170462</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>325715</v>
+        <v>325823</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>231485</v>
+        <v>228706</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>318346</v>
+        <v>317674</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12699</v>
+        <v>13139</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12874</v>
+        <v>13269</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14421</v>
+        <v>14430</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6842</v>
+        <v>7389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>132365</v>
+        <v>130927</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>167986</v>
+        <v>166965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>112601</v>
+        <v>112871</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>92238</v>
+        <v>90705</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>149854</v>
+        <v>152244</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>188309</v>
+        <v>189383</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>135863</v>
+        <v>135086</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>104086</v>
+        <v>104505</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30017</v>
+        <v>31613</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29762</v>
+        <v>31173</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>33164</v>
+        <v>32883</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30350</v>
+        <v>32328</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>176140</v>
+        <v>177744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>218533</v>
+        <v>217916</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>160136</v>
+        <v>157604</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>123276</v>
+        <v>124122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>198877</v>
+        <v>198443</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>241831</v>
+        <v>242082</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>188121</v>
+        <v>184855</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>144470</v>
+        <v>143663</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>446664</v>
+        <v>451100</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>672653</v>
+        <v>670746</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>433835</v>
+        <v>438164</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>492452</v>
+        <v>497334</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>369437</v>
+        <v>368499</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>507735</v>
+        <v>505696</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>334563</v>
+        <v>338438</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>377764</v>
+        <v>373624</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>838075</v>
+        <v>837180</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1203422</v>
+        <v>1208180</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>794881</v>
+        <v>798705</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>892920</v>
+        <v>891049</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>530061</v>
+        <v>535834</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>768723</v>
+        <v>767436</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>520911</v>
+        <v>517749</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>581642</v>
+        <v>585193</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>441147</v>
+        <v>440839</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>598649</v>
+        <v>598897</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>411704</v>
+        <v>409462</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>439358</v>
+        <v>436682</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>946679</v>
+        <v>951186</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1333854</v>
+        <v>1343133</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>906189</v>
+        <v>910840</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>998149</v>
+        <v>996952</v>
       </c>
     </row>
     <row r="32">
